--- a/茶艺培训目标人群.xlsx
+++ b/茶艺培训目标人群.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目标人群分类" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>主动顾客</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>加权得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1340,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1414,6 +1418,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
